--- a/R/analysis/data/Pt_28_Control.xlsx
+++ b/R/analysis/data/Pt_28_Control.xlsx
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>-5.14</v>
+        <v>5.14</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="n">
@@ -631,16 +631,16 @@
         <v>3.27</v>
       </c>
       <c r="K4" t="n">
-        <v>6.18</v>
+        <v>1.09</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.77</v>
+        <v>4.37</v>
       </c>
       <c r="M4" t="n">
-        <v>4.24</v>
+        <v>1.41</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>1.41</v>
       </c>
       <c r="N5" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>1.58</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.75</v>
+        <v>4.75</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="e">
@@ -805,14 +805,14 @@
         <v>2.08</v>
       </c>
       <c r="K7" t="n">
-        <v>4.77</v>
+        <v>1.94</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.38</v>
+        <v>3.38</v>
       </c>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>1.15</v>
       </c>
       <c r="N8" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>2.27</v>
       </c>
       <c r="L9" t="n">
-        <v>-5.5</v>
+        <v>5.5</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="e">
@@ -977,14 +977,14 @@
         <v>1.44</v>
       </c>
       <c r="K10" t="n">
-        <v>5.59</v>
+        <v>2.19</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.55</v>
+        <v>3.95</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>2.12</v>
       </c>
       <c r="N11" t="n">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0.98</v>
       </c>
       <c r="L12" t="n">
-        <v>-2.83</v>
+        <v>2.83</v>
       </c>
       <c r="M12" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>2.58</v>
       </c>
       <c r="K13" t="n">
-        <v>5.77</v>
+        <v>1.77</v>
       </c>
       <c r="L13" t="n">
-        <v>1.25</v>
+        <v>4.08</v>
       </c>
       <c r="M13" t="n">
-        <v>3.18</v>
+        <v>2.47</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.25</v>
+        <v>2.75</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="M14"/>
       <c r="N14" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>2.07</v>
       </c>
       <c r="L15" t="n">
-        <v>-4.57</v>
+        <v>4.57</v>
       </c>
       <c r="M15"/>
       <c r="N15" t="n">
@@ -1327,16 +1327,16 @@
         <v>2.62</v>
       </c>
       <c r="K16" t="n">
-        <v>5.76</v>
+        <v>0.71</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.5</v>
+        <v>4.07</v>
       </c>
       <c r="M16" t="n">
-        <v>4.24</v>
+        <v>2.83</v>
       </c>
       <c r="N16" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>3.06</v>
       </c>
       <c r="N17" t="n">
-        <v>-3.67</v>
+        <v>3.67</v>
       </c>
       <c r="O17" t="n">
         <v>0.35</v>
@@ -1448,7 +1448,7 @@
         <v>1.25</v>
       </c>
       <c r="L18" t="n">
-        <v>-5.71</v>
+        <v>5.71</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="n">
@@ -1503,16 +1503,16 @@
         <v>3.17</v>
       </c>
       <c r="K19" t="n">
-        <v>6.16</v>
+        <v>1.92</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.35</v>
+        <v>4.36</v>
       </c>
       <c r="M19" t="n">
-        <v>3.3</v>
+        <v>1.89</v>
       </c>
       <c r="N19" t="n">
-        <v>-1.33</v>
+        <v>2.34</v>
       </c>
       <c r="O19" t="n">
         <v>0.08</v>
@@ -1622,7 +1622,7 @@
         <v>1.17</v>
       </c>
       <c r="L21" t="n">
-        <v>-3.17</v>
+        <v>3.17</v>
       </c>
       <c r="M21" t="n">
         <v>2.12</v>
@@ -1677,10 +1677,10 @@
         <v>2.16</v>
       </c>
       <c r="K22" t="n">
-        <v>4.89</v>
+        <v>0.41</v>
       </c>
       <c r="L22" t="n">
-        <v>0.29</v>
+        <v>3.46</v>
       </c>
       <c r="M22"/>
       <c r="N22" t="n">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0.84</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.2</v>
+        <v>2.2</v>
       </c>
       <c r="M24" t="n">
         <v>0.58</v>
@@ -1851,16 +1851,16 @@
         <v>3.67</v>
       </c>
       <c r="K25" t="n">
-        <v>4.59</v>
+        <v>1.48</v>
       </c>
       <c r="L25" t="n">
-        <v>1.04</v>
+        <v>3.24</v>
       </c>
       <c r="M25" t="n">
-        <v>1.89</v>
+        <v>0.47</v>
       </c>
       <c r="N25" t="n">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>1.27</v>
       </c>
       <c r="L27" t="n">
-        <v>-2.43</v>
+        <v>2.43</v>
       </c>
       <c r="M27"/>
       <c r="N27" t="n">
@@ -2023,16 +2023,16 @@
         <v>3.82</v>
       </c>
       <c r="K28" t="n">
-        <v>4.65</v>
+        <v>1.21</v>
       </c>
       <c r="L28" t="n">
-        <v>0.85</v>
+        <v>3.29</v>
       </c>
       <c r="M28" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
